--- a/webroot/templates/material_stock_upload_buyer.xlsx
+++ b/webroot/templates/material_stock_upload_buyer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deepaksingh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87361C52-CDAA-D046-968C-3EC7FB66D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20505" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Opening Stock</t>
   </si>
   <si>
-    <t>PHFG0411</t>
-  </si>
-  <si>
     <t>Factory Code</t>
   </si>
   <si>
@@ -53,34 +51,34 @@
     <t>Uom</t>
   </si>
   <si>
-    <t>0000100186</t>
-  </si>
-  <si>
-    <t>Ethyl-2-(3-hydroxyphenyl)acetate</t>
-  </si>
-  <si>
     <t>KG</t>
   </si>
   <si>
-    <t>0000100187</t>
-  </si>
-  <si>
     <t>00010</t>
   </si>
   <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>PHFG0417</t>
-  </si>
-  <si>
-    <t>hgf</t>
+    <t>0000015144</t>
+  </si>
+  <si>
+    <t>RMWIGID019</t>
+  </si>
+  <si>
+    <t>G.I. WIRE : 0.90 MM (IS)</t>
+  </si>
+  <si>
+    <t>RMGISTD011</t>
+  </si>
+  <si>
+    <t>G.I. STRIPS : 6.1 x 1.40 MM (IS)</t>
+  </si>
+  <si>
+    <t>1_97_TH_Unit1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,10 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,99 +390,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>6500031751</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>6500029616</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>4510000421</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>4510000422</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3">
-        <v>101</v>
+        <v>5000</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
